--- a/500all/speech_level/speeches_CHRG-114hhrg22862.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22862.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order.    The subcommittee is meeting today to hear testimony examining decades of data manipulation at the United States Geological Survey.    Under Committee Rule 4(f), any oral opening statements at hearings are limited to the Chairman and the Ranking Minority Member. Therefore, I would ask unanimous consent that all other Members' opening statements be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    Hearing no objection, so ordered.    I will now recognize myself for 5 minutes for an opening statement.    Today, we will be examining decades of data manipulation that occurred within the United States Geological Survey, as well as the Agency's failure to take timely and appropriate corrective measures. USGS has been considered by many to be the gold standard of scientific integrity and reliability. That image has now been indelibly stained or, at best, profoundly shaken by the revelation of deliberate decades-long data manipulation.    Incredibly, this committee has learned that the USGS had shut down the lab from the DOI's Office of Inspector General months after it happened. In 2015, the Department of the Interior Scientific Integrity Review Panel investigating this manner concluded that there was a ``chronic pattern of scientific misconduct'' at the inorganic laboratory in Colorado. The panel also concluded that the laboratory's chemist ``intentionally manipulated'' data.    These shocking findings have not only impugned the integrity of the USGS, they also impugned the scientific underpinnings of policy decisions that may have been taken as a result of the USGS research.    I should note that we are not talking about just a few fudged numbers here and there. This involves research and personnel going all the way back to 1996. When the data manipulation was discovered in 2008, new employees were shuffled in; and yet the fraud continued, tainting thousands of sample results.    You might wonder how no one in USGS management noticed the junk science coming from the lab. Investigators offered one explanation pointing to the ``conscious acquiescence and inattentiveness of others in the laboratory and/or the center's management.''    While the long-term costs to USGS's reputation may be incalculable, the Inspector General reported that from Fiscal Year 2008 through 2014, affected projects represented $108 million. This does not include a prior decade of data manipulation. We are still trying to find out the extent of the projects that were affected and any policy decisions that were executed with falsified data. The reliability of data we are provided as lawmakers across a spectrum of issues is now called into question.    USGS is likely going to assure us that it will never happen again, that new procedures are in place, manuals have been rewritten, new positions have been created, and on and on, with solutions that make us just want to forget all this and get back to blind faith in Federal science.    However, in the discussion with our witness, I want one basic question answered--Why? Why did this happen? With all the briefings held with staff, the reports and audits written, we still do not know why this occurred. USGS told us it was the lab's lousy air conditioning, but then said that was not it. USGS told us the data was changed to account for variable calibrations, and then said that was not it.    Finally, USGS offered up the excuse that it was plain incompetence. I still don't buy it. Nearly 20 years of fraud and more than $100 million flushed down the toilet; this should not be pinned on just one incompetent employee who was, remarkably, replaced by another incompetent employee. Not to mention the fact that the most recent fall guy had sterling employee evaluations.    The primary concern is not just the mechanics of this fraud; there should be a clear explanation as to why it happened. Any proposed solution is meaningless without it.    It is an unfortunate coincidence that our first hearing in this newly created subcommittee was on the lack of accountability of Federal science and the consequences of politically-driven science. Lives have been destroyed through the actions of Federal employees, motivated by entrenched ideologies, and use of manipulated data, or just garbage science. Let this hearing serve as a warning to any Federal employee who harbors thoughts of eschewing scientific integrity and transparency in order to advance some agenda. The subcommittee will not tolerate such actions, and will hold accountable those who act in such a manner or turn a blind eye.    I would point out, as we said, the problems go back to 1996 and were first discovered in 2008. This goes across Republican and Democrat party lines. This is a matter we need to get to the bottom of why it happened; so I appreciate your indulgence.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412637</t>
   </si>
   <si>
-    <t>Debbie Dingell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman.    Thank you, Deputy Director Werkheiser, for testifying today.    The United States Geological Survey, or USGS, is one of the most esteemed scientific organizations in the world. The Agency earned its reputation through 137 years of unparalleled insights into everything from earthquakes to clean drinking water, and climate change to fossil fuel reserves.    I also know how important their work is because the USGS's Great Lakes Science Center, which is in my district, has played an important role in helping to stop the spread of Asian carp in the Great Lakes. The effect of Asian carp, if they become fully established in the Great Lakes, is enormous, which is why I requested that this subcommittee hold a hearing on just one aspect of the damage--the effect on Great Lakes fisheries.    In order to effectively protect that $4.5 billion in economic activity in the Great Lakes fisheries, we must have the best possible science from the best possible scientific institutions.    In fact, you would be hard pressed to find a congressional district that has not benefited from USGS's work, which is why it is so disappointing that they have been dealing with a scientific integrity issue.    For 18 years, chemists at a small lab in Colorado intentionally manipulated some of the data that they were hired to produce. Though none of the data was used to support any state or Federal regulations, seven papers were delayed and one had to be retracted.    USGS had the chance to correct it when the data manipulation was first uncovered in 2008; but after they cleaned house and hired new analysts and management, the same data manipulation continued unabated until it was discovered again in 2014.    The investigations that followed uncovered other disturbing things: the lab was found to be slow--they took seven times as long to analyze their samples as they should have, they were slow to identify the manipulation, they were slow to act to correct it and prevent the problem from happening, and they were slow to notify the customers.    The investigations also found that management was asleep at the wheel. Not only did management fail to catch the problem, but one manager looked the other way for a few months. Making matters worse, they presided over, and may have facilitated, a toxic workplace environment. Offensive language and behavior created an atmosphere that was so intimidating that a scientific integrity investigative body concluded that it contributed to the lab's substandard performance. Their report indicated that when a female employee tried to blow the whistle on it, management failed to support her. Any organization that devalues women in their workplace will not last. The scientific integrity report cited this failure as one of the main reasons it recommended that the lab close permanently.    The closure of this lab is a fair outcome. The USGS got a second chance to correct the problem, and they didn't. I believe the USGS should be held to a higher standard and that the lab closure was the right decision.    Fortunately, all signs point to this problem being isolated to the inorganic lab. The closest comparison to the inorganic lab at USGS is the organic lab, which is reputable and in demand.    The report by the Scientific Integrity Review Panel concluded that ``the organic laboratory section is an extremely productive, well-organized structure laboratory that is conducting important scientific research.'' Of course, the remainder of the Agency continues to churn out science that is essential to the Nation.    At this point, there have been two Inspector General reports, a number of external audits, a number of internal reviews, and a scientific integrity investigation. At this point, there have been more investigations than the number of analysts that were in the lab.    I will be interested to know what my colleagues on the other side think this hearing will add to the pile, and more specifically, how this new information will help the USGS become a stronger agency. After all, that is one of the primary functions of oversight--to improve the effectiveness of the agencies that serve the American people.    So, I hope we can focus today on making sure we can learn from the well-documented mistakes, ensure that they will not be repeated, and focus on building the Agency up rather than tearing it down.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Werkheiser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Werkheiser. Chairman Gohmert, Ranking Member Dingell, and members of the committee, thank you for the opportunity to testify today. I am Bill Werkheiser, Deputy Director of the United States Geological Survey.    The United States Geological Survey has served the Nation for 137 years, providing unbiased science for use by decisionmakers covering a wide range of policy issues. Our reputation for scientific integrity is essential to everything we do.    That is why I am here today, to address a serious breach of scientific integrity at USGS. This is not a proud day for our agency's 8,670 employees. In my 30 years of Federal service at USGS, this is my lowest moment.    In 2014, USGS identified a potential incident of scientific misconduct at the Inorganic Geochemistry Lab in Lakewood, Colorado. A scientist had been making improper adjustments to data from a machine used to measure heavy metals in coal and water samples. All work in the affected section of the laboratory was stopped and an internal investigation was initiated. USGS also promptly reported the possibility of scientific misconduct to the Office of the Inspector General.    Our investigations into the incident confirm that this data manipulation constituted scientific misconduct. This closely resembled a similar incident at the Inorganic Section that had occurred from 1996 to 2008. The investigation also identified additional management and personnel problems, including indications of a hostile work environment.    I suspect your questions are the same as mine--Why didn't we know this sooner? How could it have happened in the first place? How did it go on for so long without being detected?    Following the recommendations of the investigation, the USGS closed the Inorganic Section of the Energy Geochemistry Laboratory effective March 1, 2016. All the employees implicated in the scientific integrity incidents are no longer employed by the USGS. We posted public notice of this incident, contacted customers of the inorganic lab, and carefully reviewed work products that could have made use of manipulated data from the lab.    All failure of scientific integrity is a serious matter. Misconduct and mismanagement will not be tolerated at USGS. My job is to ensure a situation like this is never able to occur again. We are undertaking significant steps to enhance data quality assurance and quality control procedures.    First, I have asked the National Academy of Sciences to assess all the bureau's laboratory programs, data quality assurance, and quality control procedures. Second, I established a strategic lab committee to ensure that all of our laboratory assets are managed to best support the science mission of the USGS. Third, the energy program is developing a comprehensive and rigorous quality management system to replace current procedures. This will include periodic external review and international benchmarking. Fourth, we have hired a permanent quality management system manager who reports directly to headquarters to avoid any potential conflict of interest, as well as two laboratory quality assurance specialists that will oversee data quality in USGS energy science centers. Taken together, these steps will ensure that any future data quality problems are identified quickly and dealt with immediately.    In our 137-year history, the USGS has built a strong reputation on providing quality scientific information critical to the Nation. For example, our science has helped protect communities in the path of lava flows and prevented a catastrophic rupture along the Alaska pipeline. Most recently, we released an assessment that identified 20 billion barrels of technically recoverable oil resources in west Texas.    We do, and have done, important work in service of this Nation, but none of that excuses or explains this incident. I am committed to upholding the long-standing USGS reputation for scientific quality and integrity. We will continue to address the issues which led to misconduct at this USGS lab and will make all changes necessary to prevent it from happening again.    Throughout these incidents, we have tried to be accountable and transparent to the committee and the public. We have worked with your staff to provide briefings, documents, and other relevant information as quickly as possible, and to prioritize the delivery of the most critical documents to assist in your oversight.    To date, we have provided 270 documents, consisting of more than 4,000 pages responsive to 27 of your 30 specific requests. We anticipate supplying the remaining outstanding documents as soon as possible.    Thank you again for the opportunity to testify today. I am here to answer any questions you might have.</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    Thank you, Mr. Werkheiser, for being here today.    In reviewing some of the facts of this case, do you believe that the chemist most directly involved with the data manipulation was qualified for the job?</t>
   </si>
   <si>
@@ -190,9 +178,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    And, Mr. Werkheiser, thank you for your, pretty much, raw testimony today. I know this is not the first time this issue has been discussed in this committee. The last time there was only a little bit of smoke and we thought there was probably some fire, and I think you have verified that there was wrongdoing and definitely fire associated with this, figuratively speaking, obviously.    I would like to commend the Chairman and the Ranking Member. And I think this is a sign of the seriousness of this issue that scientific intellectual integrity is an important thing to everyone across these party lines, and it is something that we simply just cannot tolerate.    If you look at the founding of our greatest educational institutions in this country that even predate the Constitution, the motto of Harvard is veritas, which means truth; if you look at Yale, it is Lux et veritas, light and truth, so transparency and truth. This Nation has held that to be paramount for a long time, and when issues like this happen, it troubles us.    Personally, I worked as an engineer for over 20 years, and I used USGS data. And it makes me think, did I make professional decisions that I am accountable for based on flawed data? Even though it was not this data, but it was USGS data, and there are thousands and thousands of people across the country that have experienced that.    When we think about what has happened and how to move forward and why we, as Members of Congress and keepers of the taxpayers' dollar, should continue to invest in USGS, I think we need a better answer. I know that this data may not have been used directly in policy, but how much of this data was used by people in industry, or people in research.    How much of it--I mean, testing coal and heavy metals. Were there bad decisions made that resulted in somebody doing something in a process that harmed the environment? Were there decisions made that prevented someone from using something in a process that caused economic damage?    I think we need a better explanation, that you go back and find out exactly why this data was manipulated, what the far-reaching effects are. There is a proverb that says that if a thief is caught, he should repay it seven times over. I think USGS needs to do a more in-depth investigation so that we feel comfortable that the problem has been rectified and it will not happen again.    Are there any efforts underway to go back and trace the knowledge trail to see where this data might have been used and--even public opinion may have been influenced by articles that were written based on this research which actually could affect policy decisions. Where are you in the process of actually going back and uncovering the real damage that was done?</t>
   </si>
   <si>
@@ -220,9 +205,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman.    And, Mr. Werkheiser, thank you for being here to try to answer some pressing questions.    Obviously, it is disturbing to all of us, disturbing to you as well, I am sure, and you have communicated to that. But when you have decades of falsified, manipulated data, we all recognize it is inexcusable. And it is phenomenal to me that something like that can even take place for so long and either not be checked or be overlooked. Whichever the case was, it is inexcusable.    Then we find that, as you mentioned, I believe it was 2008 when a new scientist was brought in, he immediately begins doing the same thing, and earlier this year receives a 30-year service award. It sounds like it is like a resume enhancer to come in and be involved in data manipulation. But the fact that it was intentional and continuous is very difficult to wrap my mind around, and I am sure others feel the same way.    Let's go to this second chemist, the new chemist that came in. We already had, from 1996 to 2008, a long period of manipulated data. We finally have a new chemist come in, and in 2014, discovered that that chemist, as I mentioned earlier and the Chairman did as well, had also been manipulating data.    How long did that chemist stay on the payroll after his fraudulent activity was discovered?</t>
   </si>
   <si>
@@ -341,12 +323,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    At this time, Mrs. Radewagen is recognized for 5 minutes.</t>
-  </si>
-  <si>
-    <t>412664</t>
-  </si>
-  <si>
-    <t>Aumua Amata Coleman Radewagen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman.    Thank you for your appearance today, Mr. Werkheiser.    I assume the lab lost a significant amount of credibility when the disclosure was made. What is really amazing and troubling among many details of this case is that the lab went ahead as if nothing occurred, and you doubled down on a $174,000 piece of equipment that no one either knew how to operate, cared enough to operate correctly, or was even interested enough to oversee.    How do you justify buying a new piece of equipment like a mass spectrometer when no one was willing to verify that it was operated correctly?</t>
@@ -919,11 +895,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -945,11 +919,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -969,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -997,11 +967,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1021,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1049,11 +1015,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1073,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1101,11 +1063,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1125,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1153,11 +1111,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1177,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1205,11 +1159,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1229,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1257,11 +1207,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1281,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1309,11 +1255,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1333,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1359,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1385,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1411,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1437,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1465,11 +1399,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1489,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1515,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1541,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1567,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1593,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1619,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1645,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1671,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1697,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1723,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1749,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1775,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1801,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1827,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1853,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1881,11 +1783,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1905,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1931,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1957,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1983,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2009,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>58</v>
-      </c>
-      <c r="H44" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2035,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2061,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2089,11 +1975,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2113,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2139,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2165,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2191,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2217,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>67</v>
-      </c>
-      <c r="G52" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2243,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2269,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2295,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2321,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2347,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2373,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2399,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2425,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2451,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2477,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
-      </c>
-      <c r="G62" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2503,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2529,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
-      </c>
-      <c r="G64" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2555,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2581,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2607,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2633,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
-      </c>
-      <c r="G68" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2659,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2685,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
-      </c>
-      <c r="G70" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2711,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2737,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
-      </c>
-      <c r="G72" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2763,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2789,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2815,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2841,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
-      </c>
-      <c r="G76" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2867,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2893,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G78" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2921,11 +2743,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2945,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2971,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2997,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
-      </c>
-      <c r="G82" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3023,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3049,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
-      </c>
-      <c r="G84" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3075,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3101,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
-      </c>
-      <c r="G86" t="s">
-        <v>68</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3129,11 +2935,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3153,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3179,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3205,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3231,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3257,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3283,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3309,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>109</v>
-      </c>
-      <c r="G94" t="s">
-        <v>110</v>
-      </c>
-      <c r="H94" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3337,11 +3127,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3361,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3389,11 +3175,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3413,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3439,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3465,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3493,11 +3271,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3517,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3545,11 +3319,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3569,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3595,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3621,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3647,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3673,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3699,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3727,11 +3487,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3751,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3779,11 +3535,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3803,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3831,11 +3583,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3855,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3883,11 +3631,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3907,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3935,11 +3679,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3959,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3987,11 +3727,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4011,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4039,11 +3775,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4063,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4091,11 +3823,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4115,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4143,11 +3871,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4167,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>57</v>
-      </c>
-      <c r="G127" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4193,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4219,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>57</v>
-      </c>
-      <c r="G129" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4245,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4271,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>57</v>
-      </c>
-      <c r="G131" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4297,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4323,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>57</v>
-      </c>
-      <c r="G133" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4349,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4375,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>57</v>
-      </c>
-      <c r="G135" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4401,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4427,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>57</v>
-      </c>
-      <c r="G137" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4453,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4479,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>57</v>
-      </c>
-      <c r="G139" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4505,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4531,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>57</v>
-      </c>
-      <c r="G141" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4557,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4583,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>57</v>
-      </c>
-      <c r="G143" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4609,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4635,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>57</v>
-      </c>
-      <c r="G145" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4661,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4687,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>57</v>
-      </c>
-      <c r="G147" t="s">
-        <v>58</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4715,11 +4399,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22862.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22862.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Gohmert</t>
+  </si>
+  <si>
+    <t>Louie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gohmert. The Subcommittee on Oversight and Investigations will come to order.    The subcommittee is meeting today to hear testimony examining decades of data manipulation at the United States Geological Survey.    Under Committee Rule 4(f), any oral opening statements at hearings are limited to the Chairman and the Ranking Minority Member. Therefore, I would ask unanimous consent that all other Members' opening statements be made part of the hearing record if they are submitted to the Subcommittee Clerk by 5:00 p.m. today.    Hearing no objection, so ordered.    I will now recognize myself for 5 minutes for an opening statement.    Today, we will be examining decades of data manipulation that occurred within the United States Geological Survey, as well as the Agency's failure to take timely and appropriate corrective measures. USGS has been considered by many to be the gold standard of scientific integrity and reliability. That image has now been indelibly stained or, at best, profoundly shaken by the revelation of deliberate decades-long data manipulation.    Incredibly, this committee has learned that the USGS had shut down the lab from the DOI's Office of Inspector General months after it happened. In 2015, the Department of the Interior Scientific Integrity Review Panel investigating this manner concluded that there was a ``chronic pattern of scientific misconduct'' at the inorganic laboratory in Colorado. The panel also concluded that the laboratory's chemist ``intentionally manipulated'' data.    These shocking findings have not only impugned the integrity of the USGS, they also impugned the scientific underpinnings of policy decisions that may have been taken as a result of the USGS research.    I should note that we are not talking about just a few fudged numbers here and there. This involves research and personnel going all the way back to 1996. When the data manipulation was discovered in 2008, new employees were shuffled in; and yet the fraud continued, tainting thousands of sample results.    You might wonder how no one in USGS management noticed the junk science coming from the lab. Investigators offered one explanation pointing to the ``conscious acquiescence and inattentiveness of others in the laboratory and/or the center's management.''    While the long-term costs to USGS's reputation may be incalculable, the Inspector General reported that from Fiscal Year 2008 through 2014, affected projects represented $108 million. This does not include a prior decade of data manipulation. We are still trying to find out the extent of the projects that were affected and any policy decisions that were executed with falsified data. The reliability of data we are provided as lawmakers across a spectrum of issues is now called into question.    USGS is likely going to assure us that it will never happen again, that new procedures are in place, manuals have been rewritten, new positions have been created, and on and on, with solutions that make us just want to forget all this and get back to blind faith in Federal science.    However, in the discussion with our witness, I want one basic question answered--Why? Why did this happen? With all the briefings held with staff, the reports and audits written, we still do not know why this occurred. USGS told us it was the lab's lousy air conditioning, but then said that was not it. USGS told us the data was changed to account for variable calibrations, and then said that was not it.    Finally, USGS offered up the excuse that it was plain incompetence. I still don't buy it. Nearly 20 years of fraud and more than $100 million flushed down the toilet; this should not be pinned on just one incompetent employee who was, remarkably, replaced by another incompetent employee. Not to mention the fact that the most recent fall guy had sterling employee evaluations.    The primary concern is not just the mechanics of this fraud; there should be a clear explanation as to why it happened. Any proposed solution is meaningless without it.    It is an unfortunate coincidence that our first hearing in this newly created subcommittee was on the lack of accountability of Federal science and the consequences of politically-driven science. Lives have been destroyed through the actions of Federal employees, motivated by entrenched ideologies, and use of manipulated data, or just garbage science. Let this hearing serve as a warning to any Federal employee who harbors thoughts of eschewing scientific integrity and transparency in order to advance some agenda. The subcommittee will not tolerate such actions, and will hold accountable those who act in such a manner or turn a blind eye.    I would point out, as we said, the problems go back to 1996 and were first discovered in 2008. This goes across Republican and Democrat party lines. This is a matter we need to get to the bottom of why it happened; so I appreciate your indulgence.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412637</t>
   </si>
   <si>
+    <t>Dingell</t>
+  </si>
+  <si>
+    <t>Debbie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Dingell. Thank you, Mr. Chairman.    Thank you, Deputy Director Werkheiser, for testifying today.    The United States Geological Survey, or USGS, is one of the most esteemed scientific organizations in the world. The Agency earned its reputation through 137 years of unparalleled insights into everything from earthquakes to clean drinking water, and climate change to fossil fuel reserves.    I also know how important their work is because the USGS's Great Lakes Science Center, which is in my district, has played an important role in helping to stop the spread of Asian carp in the Great Lakes. The effect of Asian carp, if they become fully established in the Great Lakes, is enormous, which is why I requested that this subcommittee hold a hearing on just one aspect of the damage--the effect on Great Lakes fisheries.    In order to effectively protect that $4.5 billion in economic activity in the Great Lakes fisheries, we must have the best possible science from the best possible scientific institutions.    In fact, you would be hard pressed to find a congressional district that has not benefited from USGS's work, which is why it is so disappointing that they have been dealing with a scientific integrity issue.    For 18 years, chemists at a small lab in Colorado intentionally manipulated some of the data that they were hired to produce. Though none of the data was used to support any state or Federal regulations, seven papers were delayed and one had to be retracted.    USGS had the chance to correct it when the data manipulation was first uncovered in 2008; but after they cleaned house and hired new analysts and management, the same data manipulation continued unabated until it was discovered again in 2014.    The investigations that followed uncovered other disturbing things: the lab was found to be slow--they took seven times as long to analyze their samples as they should have, they were slow to identify the manipulation, they were slow to act to correct it and prevent the problem from happening, and they were slow to notify the customers.    The investigations also found that management was asleep at the wheel. Not only did management fail to catch the problem, but one manager looked the other way for a few months. Making matters worse, they presided over, and may have facilitated, a toxic workplace environment. Offensive language and behavior created an atmosphere that was so intimidating that a scientific integrity investigative body concluded that it contributed to the lab's substandard performance. Their report indicated that when a female employee tried to blow the whistle on it, management failed to support her. Any organization that devalues women in their workplace will not last. The scientific integrity report cited this failure as one of the main reasons it recommended that the lab close permanently.    The closure of this lab is a fair outcome. The USGS got a second chance to correct the problem, and they didn't. I believe the USGS should be held to a higher standard and that the lab closure was the right decision.    Fortunately, all signs point to this problem being isolated to the inorganic lab. The closest comparison to the inorganic lab at USGS is the organic lab, which is reputable and in demand.    The report by the Scientific Integrity Review Panel concluded that ``the organic laboratory section is an extremely productive, well-organized structure laboratory that is conducting important scientific research.'' Of course, the remainder of the Agency continues to churn out science that is essential to the Nation.    At this point, there have been two Inspector General reports, a number of external audits, a number of internal reviews, and a scientific integrity investigation. At this point, there have been more investigations than the number of analysts that were in the lab.    I will be interested to know what my colleagues on the other side think this hearing will add to the pile, and more specifically, how this new information will help the USGS become a stronger agency. After all, that is one of the primary functions of oversight--to improve the effectiveness of the agencies that serve the American people.    So, I hope we can focus today on making sure we can learn from the well-documented mistakes, ensure that they will not be repeated, and focus on building the Agency up rather than tearing it down.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,6 +85,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Werkheiser</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Werkheiser. Chairman Gohmert, Ranking Member Dingell, and members of the committee, thank you for the opportunity to testify today. I am Bill Werkheiser, Deputy Director of the United States Geological Survey.    The United States Geological Survey has served the Nation for 137 years, providing unbiased science for use by decisionmakers covering a wide range of policy issues. Our reputation for scientific integrity is essential to everything we do.    That is why I am here today, to address a serious breach of scientific integrity at USGS. This is not a proud day for our agency's 8,670 employees. In my 30 years of Federal service at USGS, this is my lowest moment.    In 2014, USGS identified a potential incident of scientific misconduct at the Inorganic Geochemistry Lab in Lakewood, Colorado. A scientist had been making improper adjustments to data from a machine used to measure heavy metals in coal and water samples. All work in the affected section of the laboratory was stopped and an internal investigation was initiated. USGS also promptly reported the possibility of scientific misconduct to the Office of the Inspector General.    Our investigations into the incident confirm that this data manipulation constituted scientific misconduct. This closely resembled a similar incident at the Inorganic Section that had occurred from 1996 to 2008. The investigation also identified additional management and personnel problems, including indications of a hostile work environment.    I suspect your questions are the same as mine--Why didn't we know this sooner? How could it have happened in the first place? How did it go on for so long without being detected?    Following the recommendations of the investigation, the USGS closed the Inorganic Section of the Energy Geochemistry Laboratory effective March 1, 2016. All the employees implicated in the scientific integrity incidents are no longer employed by the USGS. We posted public notice of this incident, contacted customers of the inorganic lab, and carefully reviewed work products that could have made use of manipulated data from the lab.    All failure of scientific integrity is a serious matter. Misconduct and mismanagement will not be tolerated at USGS. My job is to ensure a situation like this is never able to occur again. We are undertaking significant steps to enhance data quality assurance and quality control procedures.    First, I have asked the National Academy of Sciences to assess all the bureau's laboratory programs, data quality assurance, and quality control procedures. Second, I established a strategic lab committee to ensure that all of our laboratory assets are managed to best support the science mission of the USGS. Third, the energy program is developing a comprehensive and rigorous quality management system to replace current procedures. This will include periodic external review and international benchmarking. Fourth, we have hired a permanent quality management system manager who reports directly to headquarters to avoid any potential conflict of interest, as well as two laboratory quality assurance specialists that will oversee data quality in USGS energy science centers. Taken together, these steps will ensure that any future data quality problems are identified quickly and dealt with immediately.    In our 137-year history, the USGS has built a strong reputation on providing quality scientific information critical to the Nation. For example, our science has helped protect communities in the path of lava flows and prevented a catastrophic rupture along the Alaska pipeline. Most recently, we released an assessment that identified 20 billion barrels of technically recoverable oil resources in west Texas.    We do, and have done, important work in service of this Nation, but none of that excuses or explains this incident. I am committed to upholding the long-standing USGS reputation for scientific quality and integrity. We will continue to address the issues which led to misconduct at this USGS lab and will make all changes necessary to prevent it from happening again.    Throughout these incidents, we have tried to be accountable and transparent to the committee and the public. We have worked with your staff to provide briefings, documents, and other relevant information as quickly as possible, and to prioritize the delivery of the most critical documents to assist in your oversight.    To date, we have provided 270 documents, consisting of more than 4,000 pages responsive to 27 of your 30 specific requests. We anticipate supplying the remaining outstanding documents as soon as possible.    Thank you again for the opportunity to testify today. I am here to answer any questions you might have.</t>
   </si>
   <si>
@@ -127,6 +145,12 @@
     <t>412419</t>
   </si>
   <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman.    Thank you, Mr. Werkheiser, for being here today.    In reviewing some of the facts of this case, do you believe that the chemist most directly involved with the data manipulation was qualified for the job?</t>
   </si>
   <si>
@@ -178,6 +202,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman.    And, Mr. Werkheiser, thank you for your, pretty much, raw testimony today. I know this is not the first time this issue has been discussed in this committee. The last time there was only a little bit of smoke and we thought there was probably some fire, and I think you have verified that there was wrongdoing and definitely fire associated with this, figuratively speaking, obviously.    I would like to commend the Chairman and the Ranking Member. And I think this is a sign of the seriousness of this issue that scientific intellectual integrity is an important thing to everyone across these party lines, and it is something that we simply just cannot tolerate.    If you look at the founding of our greatest educational institutions in this country that even predate the Constitution, the motto of Harvard is veritas, which means truth; if you look at Yale, it is Lux et veritas, light and truth, so transparency and truth. This Nation has held that to be paramount for a long time, and when issues like this happen, it troubles us.    Personally, I worked as an engineer for over 20 years, and I used USGS data. And it makes me think, did I make professional decisions that I am accountable for based on flawed data? Even though it was not this data, but it was USGS data, and there are thousands and thousands of people across the country that have experienced that.    When we think about what has happened and how to move forward and why we, as Members of Congress and keepers of the taxpayers' dollar, should continue to invest in USGS, I think we need a better answer. I know that this data may not have been used directly in policy, but how much of this data was used by people in industry, or people in research.    How much of it--I mean, testing coal and heavy metals. Were there bad decisions made that resulted in somebody doing something in a process that harmed the environment? Were there decisions made that prevented someone from using something in a process that caused economic damage?    I think we need a better explanation, that you go back and find out exactly why this data was manipulated, what the far-reaching effects are. There is a proverb that says that if a thief is caught, he should repay it seven times over. I think USGS needs to do a more in-depth investigation so that we feel comfortable that the problem has been rectified and it will not happen again.    Are there any efforts underway to go back and trace the knowledge trail to see where this data might have been used and--even public opinion may have been influenced by articles that were written based on this research which actually could affect policy decisions. Where are you in the process of actually going back and uncovering the real damage that was done?</t>
   </si>
   <si>
@@ -205,6 +235,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman.    And, Mr. Werkheiser, thank you for being here to try to answer some pressing questions.    Obviously, it is disturbing to all of us, disturbing to you as well, I am sure, and you have communicated to that. But when you have decades of falsified, manipulated data, we all recognize it is inexcusable. And it is phenomenal to me that something like that can even take place for so long and either not be checked or be overlooked. Whichever the case was, it is inexcusable.    Then we find that, as you mentioned, I believe it was 2008 when a new scientist was brought in, he immediately begins doing the same thing, and earlier this year receives a 30-year service award. It sounds like it is like a resume enhancer to come in and be involved in data manipulation. But the fact that it was intentional and continuous is very difficult to wrap my mind around, and I am sure others feel the same way.    Let's go to this second chemist, the new chemist that came in. We already had, from 1996 to 2008, a long period of manipulated data. We finally have a new chemist come in, and in 2014, discovered that that chemist, as I mentioned earlier and the Chairman did as well, had also been manipulating data.    How long did that chemist stay on the payroll after his fraudulent activity was discovered?</t>
   </si>
   <si>
@@ -323,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you.    At this time, Mrs. Radewagen is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>Radewagen</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Radewagen. Thank you, Mr. Chairman.    Thank you for your appearance today, Mr. Werkheiser.    I assume the lab lost a significant amount of credibility when the disclosure was made. What is really amazing and troubling among many details of this case is that the lab went ahead as if nothing occurred, and you doubled down on a $174,000 piece of equipment that no one either knew how to operate, cared enough to operate correctly, or was even interested enough to oversee.    How do you justify buying a new piece of equipment like a mass spectrometer when no one was willing to verify that it was operated correctly?</t>
@@ -845,7 +884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +892,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,3533 +914,4135 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
       <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G40" t="s">
+        <v>62</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G42" t="s">
+        <v>62</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>62</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G48" t="s">
+        <v>73</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>73</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G52" t="s">
+        <v>73</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G54" t="s">
+        <v>73</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G56" t="s">
+        <v>73</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G57" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s">
+        <v>73</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G61" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G64" t="s">
+        <v>73</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G65" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G66" t="s">
+        <v>73</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G72" t="s">
+        <v>73</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G76" t="s">
+        <v>73</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G78" t="s">
+        <v>73</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s">
+        <v>23</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>72</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
       <c r="H86" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>74</v>
+      </c>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G92" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G93" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
       <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
       <c r="H105" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
       <c r="H107" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>18</v>
+      </c>
       <c r="H109" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G117" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>53</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G127" t="s">
+        <v>62</v>
+      </c>
       <c r="H127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>23</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>53</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G129" t="s">
+        <v>62</v>
+      </c>
       <c r="H129" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>23</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>53</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G131" t="s">
+        <v>62</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I131" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>23</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>53</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G133" t="s">
+        <v>62</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I133" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>53</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G135" t="s">
+        <v>62</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I135" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>53</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G137" t="s">
+        <v>62</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I137" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>23</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>53</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G139" t="s">
+        <v>62</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>23</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>53</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G141" t="s">
+        <v>62</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I141" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>53</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G143" t="s">
+        <v>62</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I143" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>53</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G145" t="s">
+        <v>62</v>
+      </c>
       <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I145" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>23</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>53</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G147" t="s">
+        <v>62</v>
+      </c>
       <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I147" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
       <c r="H148" t="s">
-        <v>160</v>
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg22862.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22862.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400651</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Gohmert</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412637</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Dingell</t>
   </si>
   <si>
@@ -143,6 +152,9 @@
   </si>
   <si>
     <t>412419</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Labrador</t>
@@ -884,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:J148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,4132 +929,4440 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
+      <c r="I28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I62" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I64" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G74" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G76" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G86" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>115</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>115</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>119</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
-      </c>
-      <c r="G92" t="s">
-        <v>115</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>119</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>115</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>119</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>23</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>23</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>23</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G105" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H105" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G107" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>23</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s">
-        <v>23</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>22</v>
-      </c>
-      <c r="G117" t="s">
-        <v>23</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>22</v>
-      </c>
-      <c r="G119" t="s">
-        <v>23</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>22</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>22</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G127" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H127" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G129" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H129" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G131" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H131" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I131" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G133" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H133" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I133" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G135" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H135" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I135" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G137" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H137" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I137" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G139" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H139" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I139" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>23</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G141" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H141" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I141" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>22</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G143" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H143" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I143" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G145" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H145" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I145" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>23</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G147" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="H147" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I147" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I148" t="s">
-        <v>173</v>
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
